--- a/xtt_demo/ZXXT_DEMO_131_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_131_R.XLSX
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\!current\abapgit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,11 +13,11 @@
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="{R-PERNR}" state="veryHidden"/>
-    <sheet r:id="rId556" sheetId="556" name="00540206"/>
-    <sheet r:id="rId557" sheetId="557" name="00108653"/>
-    <sheet r:id="rId558" sheetId="558" name="00108654"/>
-    <sheet r:id="rId559" sheetId="559" name="00108655"/>
-    <sheet r:id="rId560" sheetId="560" name="00108656"/>
+    <sheet r:id="rId556" sheetId="556" name="00108653"/>
+    <sheet r:id="rId557" sheetId="557" name="00108654"/>
+    <sheet r:id="rId558" sheetId="558" name="00108655"/>
+    <sheet r:id="rId559" sheetId="559" name="00108656"/>
+    <sheet r:id="rId560" sheetId="560" name="00108657"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,29 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
-  <si>
-    <t>1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>A11 B </t>
-  </si>
-  <si>
-    <t>A11B_</t>
-  </si>
-  <si>
-    <t>ANT ADAM </t>
-  </si>
-  <si>
-    <t>AntAdam_</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>CamelCase</t>
   </si>
   <si>
@@ -70,6 +52,15 @@
     <t>DATE OF BIRTH</t>
   </si>
   <si>
+    <t>DOE JOHN </t>
+  </si>
+  <si>
+    <t>DoeJohn_</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -79,7 +70,10 @@
     <t>FoxArtur_</t>
   </si>
   <si>
-    <t>Lower case</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
   <si>
     <t>M</t>
@@ -109,10 +103,16 @@
     <t>T</t>
   </si>
   <si>
+    <t>TT TT TT</t>
+  </si>
+  <si>
+    <t>TtTtTt</t>
+  </si>
+  <si>
     <t>U</t>
   </si>
   <si>
-    <t>Upper case</t>
+    <t>UPPER CASE</t>
   </si>
   <si>
     <t>WANTED</t>
@@ -139,13 +139,16 @@
     <t>ZzZzyZzy</t>
   </si>
   <si>
-    <t>a11 b </t>
-  </si>
-  <si>
-    <t>ant adam </t>
+    <t>doe john </t>
   </si>
   <si>
     <t>fox artur </t>
+  </si>
+  <si>
+    <t>lower case</t>
+  </si>
+  <si>
+    <t>tt tt tt</t>
   </si>
   <si>
     <t>yy yy yty</t>
@@ -930,7 +933,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P33" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P34" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -979,7 +982,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P33" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P35" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1370,7 +1373,7 @@
         <v>25</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
@@ -1385,7 +1388,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7"/>
       <c r="V4" s="20"/>
@@ -1396,61 +1399,61 @@
     <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T5" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="V5" s="20"/>
       <c r="W5" s="21"/>
@@ -1460,61 +1463,61 @@
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="T6" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="V6" s="20"/>
       <c r="W6" s="21"/>
@@ -1524,61 +1527,61 @@
     <row r="7">
       <c r="A7" s="4"/>
       <c r="B7" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="V7" s="23"/>
       <c r="W7" s="24"/>
@@ -1591,56 +1594,56 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
     <row r="10">
       <c r="B10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="F10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="L10" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
     <row r="11">
       <c r="B11" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>27</v>
@@ -1655,7 +1658,7 @@
         <v>27</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y11" s="9"/>
     </row>
@@ -1665,44 +1668,44 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
       <c r="B14" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="Y14" s="9"/>
     </row>
@@ -1714,7 +1717,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -1729,10 +1732,10 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -1747,10 +1750,10 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -1883,7 +1886,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7"/>
       <c r="V4" s="20"/>
@@ -1894,13 +1897,13 @@
     <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E5" s="8" t="s"/>
       <c r="F5" s="8" t="s"/>
@@ -1926,13 +1929,13 @@
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>14</v>
@@ -1989,7 +1992,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
@@ -1998,13 +2001,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="16">
         <v>0</v>
       </c>
       <c r="E10" s="16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -2013,32 +2016,32 @@
         <v>9</v>
       </c>
       <c r="H10" s="16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I10" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
     <row r="11">
       <c r="B11" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>27</v>
@@ -2053,7 +2056,7 @@
         <v>27</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y11" s="9"/>
     </row>
@@ -2063,44 +2066,44 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
       <c r="B14" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
       </c>
       <c r="G14" s="16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H14" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="16">
         <v>1</v>
       </c>
       <c r="J14" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="9"/>
     </row>
@@ -2127,10 +2130,10 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -2145,7 +2148,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -2281,7 +2284,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7"/>
       <c r="V4" s="20"/>
@@ -2292,13 +2295,13 @@
     <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="s"/>
       <c r="F5" s="8" t="s"/>
@@ -2324,12 +2327,20 @@
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8" t="s"/>
-      <c r="D6" s="8" t="s"/>
-      <c r="E6" s="8" t="s"/>
-      <c r="F6" s="8" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="8" t="s"/>
       <c r="H6" s="8" t="s"/>
       <c r="I6" s="8" t="s"/>
@@ -2381,7 +2392,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
@@ -2405,32 +2416,32 @@
         <v>9</v>
       </c>
       <c r="H10" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
     <row r="11">
       <c r="B11" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>27</v>
@@ -2445,7 +2456,7 @@
         <v>27</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y11" s="9"/>
     </row>
@@ -2455,41 +2466,41 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
       <c r="B14" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E14" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H14" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="16">
         <v>0</v>
       </c>
       <c r="K14" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14" s="16">
         <v>0</v>
@@ -2504,7 +2515,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -2519,10 +2530,10 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -2537,10 +2548,10 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -2673,7 +2684,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7"/>
       <c r="V4" s="20"/>
@@ -2684,14 +2695,12 @@
     <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="s"/>
       <c r="E5" s="8" t="s"/>
       <c r="F5" s="8" t="s"/>
       <c r="G5" s="8" t="s"/>
@@ -2716,20 +2725,16 @@
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E6" s="8" t="s"/>
+      <c r="F6" s="8" t="s"/>
       <c r="G6" s="8" t="s"/>
       <c r="H6" s="8" t="s"/>
       <c r="I6" s="8" t="s"/>
@@ -2751,9 +2756,15 @@
     </row>
     <row r="7">
       <c r="A7" s="4"/>
-      <c r="B7" s="8" t="s"/>
-      <c r="C7" s="8" t="s"/>
-      <c r="D7" s="8" t="s"/>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="8" t="s"/>
       <c r="F7" s="8" t="s"/>
       <c r="G7" s="8" t="s"/>
@@ -2781,7 +2792,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
@@ -2811,26 +2822,26 @@
         <v>9</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
     <row r="11">
       <c r="B11" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>27</v>
@@ -2845,7 +2856,7 @@
         <v>27</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y11" s="9"/>
     </row>
@@ -2855,7 +2866,7 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y13" s="9"/>
     </row>
@@ -2904,7 +2915,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -2919,10 +2930,10 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -2937,10 +2948,10 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -3073,7 +3084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7"/>
       <c r="V4" s="20"/>
@@ -3084,10 +3095,10 @@
     <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="8" t="s"/>
       <c r="E5" s="8" t="s"/>
@@ -3114,14 +3125,12 @@
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="D6" s="8" t="s"/>
       <c r="E6" s="8" t="s"/>
       <c r="F6" s="8" t="s"/>
       <c r="G6" s="8" t="s"/>
@@ -3146,10 +3155,10 @@
     <row r="7">
       <c r="A7" s="4"/>
       <c r="B7" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>27</v>
@@ -3181,7 +3190,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
@@ -3211,26 +3220,26 @@
         <v>9</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
     <row r="11">
       <c r="B11" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>27</v>
@@ -3245,7 +3254,7 @@
         <v>27</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y11" s="9"/>
     </row>
@@ -3255,7 +3264,7 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y13" s="9"/>
     </row>
@@ -3304,7 +3313,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -3319,7 +3328,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
         <v>37</v>
@@ -3337,10 +3346,10 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -3473,7 +3482,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7"/>
       <c r="V4" s="20"/>
@@ -3484,10 +3493,10 @@
     <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8" t="s"/>
       <c r="E5" s="8" t="s"/>
@@ -3514,10 +3523,10 @@
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D6" s="8" t="s"/>
       <c r="E6" s="8" t="s"/>
@@ -3544,14 +3553,12 @@
     <row r="7">
       <c r="A7" s="4"/>
       <c r="B7" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s"/>
       <c r="E7" s="8" t="s"/>
       <c r="F7" s="8" t="s"/>
       <c r="G7" s="8" t="s"/>
@@ -3579,7 +3586,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
@@ -3609,26 +3616,26 @@
         <v>9</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
     <row r="11">
       <c r="B11" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>27</v>
@@ -3643,7 +3650,7 @@
         <v>27</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y11" s="9"/>
     </row>
@@ -3653,7 +3660,7 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y13" s="9"/>
     </row>
@@ -3702,7 +3709,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -3717,7 +3724,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -3735,10 +3742,10 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>

--- a/xtt_demo/ZXXT_DEMO_131_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_131_R.XLSX
@@ -2016,10 +2016,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I10" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>19</v>

--- a/xtt_demo/ZXXT_DEMO_131_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_131_R.XLSX
@@ -13,11 +13,11 @@
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="{R-PERNR}" state="veryHidden"/>
-    <sheet r:id="rId556" sheetId="556" name="00108653"/>
-    <sheet r:id="rId557" sheetId="557" name="00108654"/>
-    <sheet r:id="rId558" sheetId="558" name="00108655"/>
-    <sheet r:id="rId559" sheetId="559" name="00108656"/>
-    <sheet r:id="rId560" sheetId="560" name="00108657"/>
+    <sheet r:id="rId556" sheetId="556" name="00000001"/>
+    <sheet r:id="rId557" sheetId="557" name="00000002"/>
+    <sheet r:id="rId558" sheetId="558" name="00000003"/>
+    <sheet r:id="rId559" sheetId="559" name="00000005"/>
+    <sheet r:id="rId560" sheetId="560" name="00000006"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
-  <si>
-    <t>A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>CamelCase</t>
   </si>
@@ -52,111 +49,36 @@
     <t>DATE OF BIRTH</t>
   </si>
   <si>
-    <t>DOE JOHN </t>
-  </si>
-  <si>
-    <t>DoeJohn_</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>FOX ARTUR </t>
-  </si>
-  <si>
-    <t>FoxArtur_</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>M/F</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>PERSONNEL ID NUMBER</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>SEX</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>TT TT TT</t>
-  </si>
-  <si>
-    <t>TtTtTt</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>UPPER CASE</t>
   </si>
   <si>
     <t>WANTED</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>YY YY YTY</t>
-  </si>
-  <si>
-    <t>YyYyYty</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>ZZ ZZY ZZY</t>
-  </si>
-  <si>
-    <t>ZzZzyZzy</t>
-  </si>
-  <si>
-    <t>doe john </t>
-  </si>
-  <si>
-    <t>fox artur </t>
-  </si>
-  <si>
     <t>lower case</t>
   </si>
   <si>
-    <t>tt tt tt</t>
-  </si>
-  <si>
-    <t>yy yy yty</t>
-  </si>
-  <si>
-    <t>zz zzy zzy</t>
-  </si>
-  <si>
     <t>{R-PHOTO;type=image}</t>
   </si>
   <si>
@@ -398,6 +320,108 @@
   </si>
   <si>
     <t>{R:v-VORNA+9(1)}</t>
+  </si>
+  <si>
+    <t>Ё</t>
+  </si>
+  <si>
+    <t>А</t>
+  </si>
+  <si>
+    <t>В</t>
+  </si>
+  <si>
+    <t>Г</t>
+  </si>
+  <si>
+    <t>Д</t>
+  </si>
+  <si>
+    <t>ДЖЕКИ ЧАН </t>
+  </si>
+  <si>
+    <t>ДжекиЧан_</t>
+  </si>
+  <si>
+    <t>Е</t>
+  </si>
+  <si>
+    <t>Ж</t>
+  </si>
+  <si>
+    <t>И</t>
+  </si>
+  <si>
+    <t>ИСАЕВА СВЕТЛАНА ЕВГЕНЬЕВНА</t>
+  </si>
+  <si>
+    <t>ИсаеваСветланаЕвгеньевна</t>
+  </si>
+  <si>
+    <t>К</t>
+  </si>
+  <si>
+    <t>Л</t>
+  </si>
+  <si>
+    <t>Н</t>
+  </si>
+  <si>
+    <t>О</t>
+  </si>
+  <si>
+    <t>П</t>
+  </si>
+  <si>
+    <t>ПОПОВ ПЁТР </t>
+  </si>
+  <si>
+    <t>ПоповПётр_</t>
+  </si>
+  <si>
+    <t>Р</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>ТУРЧЕНКО НИКИТА </t>
+  </si>
+  <si>
+    <t>ТурченкоНикита_</t>
+  </si>
+  <si>
+    <t>У</t>
+  </si>
+  <si>
+    <t>Ч</t>
+  </si>
+  <si>
+    <t>ЧАК НОРИС </t>
+  </si>
+  <si>
+    <t>ЧакНорис_</t>
+  </si>
+  <si>
+    <t>Ь</t>
+  </si>
+  <si>
+    <t>джеки чан </t>
+  </si>
+  <si>
+    <t>исаева светлана евгеньевна</t>
+  </si>
+  <si>
+    <t>попов пётр </t>
+  </si>
+  <si>
+    <t>турченко никита </t>
+  </si>
+  <si>
+    <t>чак норис </t>
   </si>
 </sst>
 </file>
@@ -884,7 +908,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P33" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P32" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -933,7 +957,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P34" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P32" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -982,7 +1006,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P35" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P32" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1370,10 +1394,10 @@
     <row r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
@@ -1388,7 +1412,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7"/>
       <c r="V4" s="20"/>
@@ -1399,61 +1423,61 @@
     <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="V5" s="20"/>
       <c r="W5" s="21"/>
@@ -1463,61 +1487,61 @@
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="V6" s="20"/>
       <c r="W6" s="21"/>
@@ -1527,61 +1551,61 @@
     <row r="7">
       <c r="A7" s="4"/>
       <c r="B7" s="8" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="V7" s="23"/>
       <c r="W7" s="24"/>
@@ -1594,71 +1618,71 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
     <row r="10">
       <c r="B10" s="16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="8" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
     <row r="11">
       <c r="B11" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Y11" s="9"/>
     </row>
@@ -1668,44 +1692,44 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Y13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
       <c r="B14" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="Y14" s="9"/>
     </row>
@@ -1714,10 +1738,10 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -1732,10 +1756,10 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -1750,10 +1774,10 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -1870,7 +1894,7 @@
     <row r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V2" s="17"/>
       <c r="W2" s="18"/>
@@ -1886,7 +1910,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7"/>
       <c r="V4" s="20"/>
@@ -1897,19 +1921,29 @@
     <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="8" t="s"/>
-      <c r="F5" s="8" t="s"/>
-      <c r="G5" s="8" t="s"/>
-      <c r="H5" s="8" t="s"/>
-      <c r="I5" s="8" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="J5" s="8" t="s"/>
       <c r="K5" s="8" t="s"/>
       <c r="L5" s="8" t="s"/>
@@ -1929,19 +1963,23 @@
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="8" t="s"/>
-      <c r="G6" s="8" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="H6" s="8" t="s"/>
       <c r="I6" s="8" t="s"/>
       <c r="J6" s="8" t="s"/>
@@ -1992,22 +2030,22 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
     <row r="10">
       <c r="B10" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="16">
         <v>0</v>
       </c>
       <c r="E10" s="16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -2016,47 +2054,47 @@
         <v>9</v>
       </c>
       <c r="H10" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
     <row r="11">
       <c r="B11" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Y11" s="9"/>
     </row>
@@ -2066,44 +2104,44 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Y13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
       <c r="B14" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
         <v>6</v>
-      </c>
-      <c r="E14" s="16">
-        <v>5</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
       </c>
       <c r="G14" s="16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H14" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
         <v>1</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
-        <v>3</v>
-      </c>
-      <c r="L14" s="16">
-        <v>0</v>
       </c>
       <c r="Y14" s="9"/>
     </row>
@@ -2112,10 +2150,10 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -2130,10 +2168,10 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -2148,10 +2186,10 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -2268,7 +2306,7 @@
     <row r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V2" s="17"/>
       <c r="W2" s="18"/>
@@ -2284,7 +2322,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7"/>
       <c r="V4" s="20"/>
@@ -2295,16 +2333,20 @@
     <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="8" t="s"/>
-      <c r="F5" s="8" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="G5" s="8" t="s"/>
       <c r="H5" s="8" t="s"/>
       <c r="I5" s="8" t="s"/>
@@ -2327,20 +2369,18 @@
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F6" s="8" t="s"/>
       <c r="G6" s="8" t="s"/>
       <c r="H6" s="8" t="s"/>
       <c r="I6" s="8" t="s"/>
@@ -2392,7 +2432,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
@@ -2416,47 +2456,47 @@
         <v>9</v>
       </c>
       <c r="H10" s="16">
+        <v>9</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="I10" s="16">
-        <v>9</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
     <row r="11">
       <c r="B11" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Y11" s="9"/>
     </row>
@@ -2466,14 +2506,14 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Y13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
       <c r="B14" s="16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14" s="16">
         <v>0</v>
@@ -2482,13 +2522,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="16">
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="16">
         <v>0</v>
@@ -2500,10 +2540,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="9"/>
     </row>
@@ -2512,10 +2552,10 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -2530,10 +2570,10 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -2548,10 +2588,10 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -2668,7 +2708,7 @@
     <row r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V2" s="17"/>
       <c r="W2" s="18"/>
@@ -2684,7 +2724,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7"/>
       <c r="V4" s="20"/>
@@ -2695,15 +2735,23 @@
     <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8" t="s"/>
-      <c r="E5" s="8" t="s"/>
-      <c r="F5" s="8" t="s"/>
-      <c r="G5" s="8" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="H5" s="8" t="s"/>
       <c r="I5" s="8" t="s"/>
       <c r="J5" s="8" t="s"/>
@@ -2725,19 +2773,29 @@
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8" t="s"/>
-      <c r="F6" s="8" t="s"/>
-      <c r="G6" s="8" t="s"/>
-      <c r="H6" s="8" t="s"/>
-      <c r="I6" s="8" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="J6" s="8" t="s"/>
       <c r="K6" s="8" t="s"/>
       <c r="L6" s="8" t="s"/>
@@ -2757,21 +2815,35 @@
     <row r="7">
       <c r="A7" s="4"/>
       <c r="B7" s="8" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="8" t="s"/>
-      <c r="F7" s="8" t="s"/>
-      <c r="G7" s="8" t="s"/>
-      <c r="H7" s="8" t="s"/>
-      <c r="I7" s="8" t="s"/>
-      <c r="J7" s="8" t="s"/>
-      <c r="K7" s="8" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="L7" s="8" t="s"/>
       <c r="M7" s="8" t="s"/>
       <c r="N7" s="8" t="s"/>
@@ -2792,7 +2864,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
@@ -2819,44 +2891,44 @@
         <v>8</v>
       </c>
       <c r="I10" s="16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
     <row r="11">
       <c r="B11" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Y11" s="9"/>
     </row>
@@ -2866,14 +2938,14 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Y13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
       <c r="B14" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C14" s="16">
         <v>0</v>
@@ -2882,13 +2954,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="16">
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="16">
         <v>0</v>
@@ -2900,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y14" s="9"/>
     </row>
@@ -2912,10 +2984,10 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -2930,10 +3002,10 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -2948,10 +3020,10 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -3068,7 +3140,7 @@
     <row r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V2" s="17"/>
       <c r="W2" s="18"/>
@@ -3084,7 +3156,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7"/>
       <c r="V4" s="20"/>
@@ -3095,14 +3167,20 @@
     <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="8" t="s"/>
-      <c r="E5" s="8" t="s"/>
-      <c r="F5" s="8" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="G5" s="8" t="s"/>
       <c r="H5" s="8" t="s"/>
       <c r="I5" s="8" t="s"/>
@@ -3125,12 +3203,14 @@
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="8" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="E6" s="8" t="s"/>
       <c r="F6" s="8" t="s"/>
       <c r="G6" s="8" t="s"/>
@@ -3154,15 +3234,9 @@
     </row>
     <row r="7">
       <c r="A7" s="4"/>
-      <c r="B7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B7" s="8" t="s"/>
+      <c r="C7" s="8" t="s"/>
+      <c r="D7" s="8" t="s"/>
       <c r="E7" s="8" t="s"/>
       <c r="F7" s="8" t="s"/>
       <c r="G7" s="8" t="s"/>
@@ -3190,7 +3264,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
@@ -3214,47 +3288,47 @@
         <v>9</v>
       </c>
       <c r="H10" s="16">
+        <v>9</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="I10" s="16">
-        <v>9</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
     <row r="11">
       <c r="B11" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Y11" s="9"/>
     </row>
@@ -3264,14 +3338,14 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Y13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
       <c r="B14" s="16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14" s="16">
         <v>0</v>
@@ -3280,28 +3354,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="16">
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" s="16">
         <v>0</v>
       </c>
       <c r="K14" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y14" s="9"/>
     </row>
@@ -3310,10 +3384,10 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -3328,10 +3402,10 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -3346,10 +3420,10 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -3466,7 +3540,7 @@
     <row r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V2" s="17"/>
       <c r="W2" s="18"/>
@@ -3482,7 +3556,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7"/>
       <c r="V4" s="20"/>
@@ -3493,12 +3567,14 @@
     <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="E5" s="8" t="s"/>
       <c r="F5" s="8" t="s"/>
       <c r="G5" s="8" t="s"/>
@@ -3523,14 +3599,20 @@
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s"/>
-      <c r="E6" s="8" t="s"/>
-      <c r="F6" s="8" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="G6" s="8" t="s"/>
       <c r="H6" s="8" t="s"/>
       <c r="I6" s="8" t="s"/>
@@ -3552,12 +3634,8 @@
     </row>
     <row r="7">
       <c r="A7" s="4"/>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="B7" s="8" t="s"/>
+      <c r="C7" s="8" t="s"/>
       <c r="D7" s="8" t="s"/>
       <c r="E7" s="8" t="s"/>
       <c r="F7" s="8" t="s"/>
@@ -3586,7 +3664,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
@@ -3610,47 +3688,47 @@
         <v>9</v>
       </c>
       <c r="H10" s="16">
+        <v>9</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="I10" s="16">
-        <v>9</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
     <row r="11">
       <c r="B11" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Y11" s="9"/>
     </row>
@@ -3660,14 +3738,14 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Y13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
       <c r="B14" s="16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14" s="16">
         <v>0</v>
@@ -3676,28 +3754,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="16">
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" s="16">
         <v>0</v>
       </c>
       <c r="K14" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y14" s="9"/>
     </row>
@@ -3706,10 +3784,10 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -3724,10 +3802,10 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -3742,10 +3820,10 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
